--- a/sample_csv/emp_all_data.xlsx
+++ b/sample_csv/emp_all_data.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghuvallikkat/Desktop/LEADSOC_CODE/CRM1.0/sample_csv/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E580F06-60CA-4548-BF7E-CFF4B311E79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="720" yWindow="3600" windowWidth="28320" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$16</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
   <si>
     <t>Employee ID</t>
   </si>
@@ -220,19 +229,130 @@
     <t>LS211</t>
   </si>
   <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
     <t>sandeep@gmail.com</t>
   </si>
   <si>
     <t>SALES_HEAD</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Ismanager</t>
+  </si>
+  <si>
+    <t>Yaseen</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>ASW</t>
+  </si>
+  <si>
+    <t>CSSW</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HWFE</t>
+  </si>
+  <si>
+    <t>HWBE</t>
+  </si>
+  <si>
+    <t>ESW</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Satheesh</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Sandeep N</t>
+  </si>
+  <si>
+    <t>LS212</t>
+  </si>
+  <si>
+    <t>LS213</t>
+  </si>
+  <si>
+    <t>LS214</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>Muktha</t>
+  </si>
+  <si>
+    <t>TA_HEAD</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TA_STAFF</t>
+  </si>
+  <si>
+    <t>VM_STAFF</t>
+  </si>
+  <si>
+    <t>LS215</t>
+  </si>
+  <si>
+    <t>Sandeep P</t>
+  </si>
+  <si>
+    <t>LS216</t>
+  </si>
+  <si>
+    <t>Sudeendra</t>
+  </si>
+  <si>
+    <t>LS217</t>
+  </si>
+  <si>
+    <t>Anitha</t>
+  </si>
+  <si>
+    <t>HR_HEAD</t>
+  </si>
+  <si>
+    <t>HR_STAFF</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Talent Aquistion</t>
+  </si>
+  <si>
+    <t>Vendor management</t>
+  </si>
+  <si>
+    <t>Buisness Dev</t>
+  </si>
+  <si>
+    <t>VM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -253,7 +373,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563c1"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -292,52 +412,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -348,10 +467,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -389,71 +508,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,7 +600,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -504,11 +623,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -517,13 +636,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -533,7 +652,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -542,7 +661,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -551,7 +670,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -559,10 +678,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -627,31 +746,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +809,20 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="M1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -726,8 +859,20 @@
       <c r="L2" s="8">
         <v>45051</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="M2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -764,8 +909,20 @@
       <c r="L3" s="8">
         <v>45058</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="M3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -802,8 +959,20 @@
       <c r="L4" s="8">
         <v>45063</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="M4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -840,8 +1009,20 @@
       <c r="L5" s="8">
         <v>45063</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="M5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -878,8 +1059,20 @@
       <c r="L6" s="8">
         <v>45060</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="M6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -916,8 +1109,20 @@
       <c r="L7" s="8">
         <v>45061</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="M7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -939,9 +1144,7 @@
       <c r="G8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
@@ -954,8 +1157,20 @@
       <c r="L8" s="8">
         <v>45061</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="M8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -972,13 +1187,13 @@
         <v>58</v>
       </c>
       <c r="F9" s="6">
-        <v>123456678</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
+      <c r="H9" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>53</v>
@@ -992,8 +1207,20 @@
       <c r="L9" s="8">
         <v>45061</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="M9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1010,14 +1237,12 @@
         <v>62</v>
       </c>
       <c r="F10" s="6">
-        <v>223456678</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1030,8 +1255,20 @@
       <c r="L10" s="8">
         <v>45061</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="M10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1048,14 +1285,12 @@
         <v>66</v>
       </c>
       <c r="F11" s="6">
-        <v>323456678</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1068,13 +1303,25 @@
       <c r="L11" s="8">
         <v>45061</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="M11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -1083,19 +1330,19 @@
         <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="6">
-        <v>423456678</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>54</v>
@@ -1106,8 +1353,321 @@
       <c r="L12" s="8">
         <v>45061</v>
       </c>
+      <c r="M12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L13" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L14" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="6">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L15" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L16" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L17" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45058</v>
+      </c>
+      <c r="L18" s="8">
+        <v>45061</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O16" xr:uid="{9119804B-F4A7-E043-8195-40A65A09FC22}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_csv/emp_all_data.xlsx
+++ b/sample_csv/emp_all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghuvallikkat/Desktop/LEADSOC_CODE/CRM1.0/sample_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E580F06-60CA-4548-BF7E-CFF4B311E79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F79BE9-B6FF-5B4B-97C6-A52CFF730534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="3600" windowWidth="28320" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
   <si>
     <t>Employee ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>suresh@gmail.com</t>
   </si>
   <si>
-    <t>C,C++</t>
-  </si>
-  <si>
     <t>Deployed</t>
   </si>
   <si>
@@ -347,6 +344,12 @@
   </si>
   <si>
     <t>VM</t>
+  </si>
+  <si>
+    <t>project Management</t>
+  </si>
+  <si>
+    <t>yaseen</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,16 +813,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="P1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,16 +863,16 @@
         <v>45051</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,8 +885,8 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>23</v>
@@ -895,13 +898,13 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K3" s="8">
         <v>45028</v>
@@ -910,13 +913,13 @@
         <v>45058</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>82</v>
@@ -924,19 +927,19 @@
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="6">
         <v>8769457112</v>
@@ -945,13 +948,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="8">
         <v>45031</v>
@@ -960,33 +963,33 @@
         <v>45063</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6">
         <v>9758648113</v>
@@ -995,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
@@ -1010,33 +1013,33 @@
         <v>45063</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="6">
         <v>8971234114</v>
@@ -1045,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -1060,33 +1063,33 @@
         <v>45060</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="6">
         <v>8975647115</v>
@@ -1095,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -1110,33 +1113,33 @@
         <v>45061</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="6">
         <v>8722331155</v>
@@ -1146,10 +1149,10 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K8" s="8">
         <v>45058</v>
@@ -1158,33 +1161,33 @@
         <v>45061</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -1193,13 +1196,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K9" s="8">
         <v>45058</v>
@@ -1208,33 +1211,33 @@
         <v>45061</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -1244,10 +1247,10 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="8">
         <v>45058</v>
@@ -1256,33 +1259,33 @@
         <v>45061</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
@@ -1292,10 +1295,10 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="8">
         <v>45058</v>
@@ -1304,33 +1307,33 @@
         <v>45061</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
@@ -1339,13 +1342,13 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="8">
         <v>45058</v>
@@ -1354,33 +1357,33 @@
         <v>45061</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -1389,13 +1392,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="8">
         <v>45058</v>
@@ -1404,33 +1407,33 @@
         <v>45061</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="6">
         <v>6</v>
@@ -1439,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="8">
         <v>45058</v>
@@ -1454,33 +1457,33 @@
         <v>45061</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6">
         <v>7</v>
@@ -1489,13 +1492,13 @@
         <v>4</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="8">
         <v>45058</v>
@@ -1504,33 +1507,33 @@
         <v>45061</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6">
         <v>8</v>
@@ -1539,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="8">
         <v>45058</v>
@@ -1554,33 +1557,33 @@
         <v>45061</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="6">
         <v>9</v>
@@ -1589,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="8">
         <v>45058</v>
@@ -1604,33 +1607,33 @@
         <v>45061</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6">
         <v>10</v>
@@ -1639,13 +1642,13 @@
         <v>4</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="8">
         <v>45058</v>
@@ -1654,16 +1657,16 @@
         <v>45061</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
